--- a/biology/Histoire de la zoologie et de la botanique/Theodor_Gustav_Heinrich_Eimer/Theodor_Gustav_Heinrich_Eimer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodor_Gustav_Heinrich_Eimer/Theodor_Gustav_Heinrich_Eimer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Gustav Heinrich Eimer est un zoologiste suisse néo-lamarckien, né le 22 février 1843 à Stäfa, près de Rapperswil et mort le 29 mai 1898 à Tübingen.
 Il est le fils d’Heinrich Eimer et d’Albertine née Pfenninger. Il étudie la médecine et les sciences naturelles dans les universités allemandes de Tübingen, Fribourg, Heidelberg et Berlin. Il étudie notamment auprès de Rudolph Ludwig Karl Virchow (1821-1902) et de Albert von Kolliker (1817-1905). Il est diplômé en médecine en 1868 et les sciences en 1869. Il se marie avec Anna Lutteroth en 1870, union dont naîtra deux fils.
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Zur Geschichte der Becherzellen, insbesondere derjenigen der Schleimhaut des Darmcanals... Als Inaugural-Dissertation gedruckt (Berlin, 1868).
 Ueber die Ei- oder Kugelförmigen sogenannten Psorospermien der Wirbelthiere. Ein Beitrag zur Entwicklungsgeschichte der Gregarinen und zur Kenntniss dieser Parasiten als Krankheitsursache (Wurtzbourg, 1870).
@@ -549,7 +563,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Orthogenèse</t>
         </is>
